--- a/data/trans_dic/P16B18-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P16B18-Estudios-trans_dic.xlsx
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población cuyos medicamentos anticonceptivos fueron recetados (tasa de respuesta: 98,6%)</t>
+          <t>Mujeres menores de 55 años cuyos anticonceptivos consumidos fueron recetados por el médico (tasa de respuesta: 98,6%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -831,7 +831,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población cuyos medicamentos anticonceptivos fueron recetados (tasa de respuesta: 98,6%)</t>
+          <t>Mujeres menores de 55 años cuyos anticonceptivos consumidos fueron recetados por el médico (tasa de respuesta: 98,6%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/P16B18-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P16B18-Estudios-trans_dic.xlsx
@@ -601,11 +601,11 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.5899589005574822</v>
+        <v>0.6110717100373982</v>
       </c>
       <c r="D5" s="5" t="inlineStr"/>
       <c r="E5" s="5" t="n">
-        <v>0.7098976105348098</v>
+        <v>0.7144694092738192</v>
       </c>
     </row>
     <row r="6">
@@ -616,7 +616,7 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.9526806782766308</v>
+        <v>0.9512710156930215</v>
       </c>
       <c r="D6" s="5" t="inlineStr"/>
       <c r="E6" s="5" t="n">
@@ -652,13 +652,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.9065394202461149</v>
+        <v>0.9046150460955091</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.9370765181432449</v>
+        <v>0.9380034287990217</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.9412759731927746</v>
+        <v>0.9439039762260778</v>
       </c>
     </row>
     <row r="9">
@@ -669,10 +669,10 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.9846768481106936</v>
+        <v>0.9837759158974856</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.9934268313232461</v>
+        <v>0.9936823808698974</v>
       </c>
       <c r="E9" s="5" t="n">
         <v>1</v>
@@ -707,11 +707,11 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.7577906553553809</v>
+        <v>0.7499516141368602</v>
       </c>
       <c r="D11" s="5" t="inlineStr"/>
       <c r="E11" s="5" t="n">
-        <v>0.7274690357935585</v>
+        <v>0.7322918968061045</v>
       </c>
     </row>
     <row r="12">
@@ -722,11 +722,11 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.9337925234381732</v>
+        <v>0.9343595670668012</v>
       </c>
       <c r="D12" s="5" t="inlineStr"/>
       <c r="E12" s="5" t="n">
-        <v>0.9688097647041288</v>
+        <v>0.965675820683529</v>
       </c>
     </row>
     <row r="13">
@@ -758,13 +758,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.8717059762207751</v>
+        <v>0.870982431895225</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.9559464742668228</v>
+        <v>0.9555584397089931</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.9177086657736255</v>
+        <v>0.9124452583105171</v>
       </c>
     </row>
     <row r="15">
@@ -775,13 +775,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.9478385631103613</v>
+        <v>0.9471301261646864</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.9954583435415187</v>
+        <v>0.9956036477112806</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.9819180548731533</v>
+        <v>0.9813779018436163</v>
       </c>
     </row>
     <row r="16">
@@ -915,11 +915,11 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>12498</v>
+        <v>12945</v>
       </c>
       <c r="D6" s="6" t="inlineStr"/>
       <c r="E6" s="6" t="n">
-        <v>8638</v>
+        <v>8694</v>
       </c>
     </row>
     <row r="7">
@@ -930,7 +930,7 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>20182</v>
+        <v>20152</v>
       </c>
       <c r="D7" s="6" t="inlineStr"/>
       <c r="E7" s="6" t="n">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>116985</v>
+        <v>116737</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>146363</v>
+        <v>146508</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>96472</v>
+        <v>96742</v>
       </c>
     </row>
     <row r="11">
@@ -1000,10 +1000,10 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>127069</v>
+        <v>126952</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>155164</v>
+        <v>155204</v>
       </c>
       <c r="E11" s="6" t="n">
         <v>102491</v>
@@ -1055,11 +1055,11 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>46187</v>
+        <v>45709</v>
       </c>
       <c r="D14" s="6" t="inlineStr"/>
       <c r="E14" s="6" t="n">
-        <v>23260</v>
+        <v>23414</v>
       </c>
     </row>
     <row r="15">
@@ -1070,11 +1070,11 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>56914</v>
+        <v>56948</v>
       </c>
       <c r="D15" s="6" t="inlineStr"/>
       <c r="E15" s="6" t="n">
-        <v>30977</v>
+        <v>30877</v>
       </c>
     </row>
     <row r="16">
@@ -1123,13 +1123,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>184085</v>
+        <v>183932</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>215076</v>
+        <v>214989</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>134566</v>
+        <v>133795</v>
       </c>
     </row>
     <row r="19">
@@ -1140,13 +1140,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>200163</v>
+        <v>200013</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>223966</v>
+        <v>223999</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>143982</v>
+        <v>143902</v>
       </c>
     </row>
     <row r="20">
